--- a/biology/Mycologie/Rouille_de_l'aubépine/Rouille_de_l'aubépine.xlsx
+++ b/biology/Mycologie/Rouille_de_l'aubépine/Rouille_de_l'aubépine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rouille_de_l%27aub%C3%A9pine</t>
+          <t>Rouille_de_l'aubépine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rouille de l'aubépine est une maladie cryptogamique de la famille des rouilles qui peut être causée par trois microchampignons du genre Gymnosporangium, tous les trois infectant alternativement sous des formes diverses des arbres de la famille des Rosacées, et des Genévriers[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rouille de l'aubépine est une maladie cryptogamique de la famille des rouilles qui peut être causée par trois microchampignons du genre Gymnosporangium, tous les trois infectant alternativement sous des formes diverses des arbres de la famille des Rosacées, et des Genévriers :
 Gymnosporangium globosum
 Gymnosporangium confusum
 Gymnosporangium clavariiforme
